--- a/clean_data/apparence_finaL.xlsx
+++ b/clean_data/apparence_finaL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,26 +471,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extrait d'avis</t>
+          <t>Résultats traduits</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>702</v>
+        <v>34</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>8.82%</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21.28</v>
+        <v>10.62</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Electric URL</t>
+          <t>electric URL</t>
         </is>
       </c>
     </row>
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12.42</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Electric URL</t>
+          <t>electric URL</t>
         </is>
       </c>
     </row>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>702</v>
+        <v>16375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>0.27%</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>21.28</v>
+        <v>62.47</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Manufacturer</t>
+          <t>tesla KWD</t>
         </is>
       </c>
     </row>
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>207</v>
+        <v>2593</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.15%</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12.42</v>
+        <v>64.64</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Manufacturer</t>
+          <t>tesla KWD</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tesla KWD</t>
+          <t>electric KWD</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tesla KWD</t>
+          <t>electric KWD</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>209888</v>
       </c>
       <c r="D8" t="n">
-        <v>702</v>
+        <v>6449490</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>21.28</v>
+        <v>27.17</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Electric KWD</t>
+          <t>global</t>
         </is>
       </c>
     </row>
@@ -678,138 +678,109 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10996</v>
       </c>
       <c r="D9" t="n">
-        <v>207</v>
+        <v>610625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12.42</v>
+        <v>27.56</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Electric KWD</t>
+          <t>global</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Extrait d'avis</t>
+          <t>Résultats traduits</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>209888</v>
+        <v>190</v>
       </c>
       <c r="D10" t="n">
-        <v>6449490</v>
+        <v>11909</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>27.17</v>
+        <v>11.11</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>global</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Extraits de produits</t>
+          <t>Vidéos</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10996</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>610625</v>
+        <v>32</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27.56</v>
+        <v>5.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>global</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Résultats traduits</t>
+          <t>Extraits de produits</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>190</v>
+        <v>447</v>
       </c>
       <c r="D12" t="n">
-        <v>11909</v>
+        <v>61981</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>11.11</v>
+        <v>15.57</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Vidéos</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>32</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Global</t>
+          <t>manufacturer URL</t>
         </is>
       </c>
     </row>
